--- a/biology/Botanique/Léchéa_maritime/Léchéa_maritime.xlsx
+++ b/biology/Botanique/Léchéa_maritime/Léchéa_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9ch%C3%A9a_maritime</t>
+          <t>Léchéa_maritime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lechea maritima
 La Léchéa maritime (Lechea maritima) est une plante vivace de la famille des Cistaceae. Elle est présente sur la dunes côtières de la côte de l'océan Atlantique de la Caroline du Nord jusqu'au Nouveau-Brunswick.
